--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>monte_carlo</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>var_area</t>
+  </si>
+  <si>
+    <t>ci_upper</t>
+  </si>
+  <si>
+    <t>ci_down</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,22 +432,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1.5092150528</v>
+        <v>1.50922833152</v>
       </c>
       <c r="C2">
-        <v>1.5092150528</v>
+        <v>1.50922833152</v>
       </c>
       <c r="D2">
-        <v>1.5109191552</v>
+        <v>1.5106093184</v>
       </c>
       <c r="E2">
-        <v>1.5126896512</v>
+        <v>1.5103963056</v>
       </c>
       <c r="F2">
-        <v>1.5107974336</v>
+        <v>1.510551224</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +455,68 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0005090484083472442</v>
+        <v>0.0006231141841015626</v>
       </c>
       <c r="C3">
-        <v>0.0005090484083472442</v>
+        <v>0.0006231141841015626</v>
       </c>
       <c r="D3">
-        <v>1.499499547207362E-05</v>
+        <v>1.297575825395703E-05</v>
       </c>
       <c r="E3">
-        <v>0.0002591182118678647</v>
+        <v>0.0002493197787103174</v>
       </c>
       <c r="F3">
-        <v>0.0006102015487668596</v>
+        <v>0.0009127010069212253</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1.558212799840014</v>
+      </c>
+      <c r="C4">
+        <v>1.558212799840014</v>
+      </c>
+      <c r="D4">
+        <v>1.517678041226865</v>
+      </c>
+      <c r="E4">
+        <v>1.541381408750631</v>
+      </c>
+      <c r="F4">
+        <v>1.569835407754516</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1.460243863199986</v>
+      </c>
+      <c r="C5">
+        <v>1.460243863199986</v>
+      </c>
+      <c r="D5">
+        <v>1.503540595573135</v>
+      </c>
+      <c r="E5">
+        <v>1.47941120244937</v>
+      </c>
+      <c r="F5">
+        <v>1.451267040245484</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>monte_carlo</t>
   </si>
@@ -37,7 +37,13 @@
     <t>avg_area</t>
   </si>
   <si>
-    <t>var_area</t>
+    <t>std_area</t>
+  </si>
+  <si>
+    <t>ci_upper</t>
+  </si>
+  <si>
+    <t>ci_down</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,22 +432,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1.5092150528</v>
+        <v>1.50922833152</v>
       </c>
       <c r="C2">
-        <v>1.5092150528</v>
+        <v>1.50922833152</v>
       </c>
       <c r="D2">
-        <v>1.5109191552</v>
+        <v>1.5106093184</v>
       </c>
       <c r="E2">
-        <v>1.5126896512</v>
+        <v>1.5103963056</v>
       </c>
       <c r="F2">
-        <v>1.5107974336</v>
+        <v>1.510551224</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +455,68 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0005090484083472442</v>
+        <v>0.0249497709391782</v>
       </c>
       <c r="C3">
-        <v>0.0005090484083472442</v>
+        <v>0.0249497709391782</v>
       </c>
       <c r="D3">
-        <v>1.499499547207362E-05</v>
+        <v>0.003600386436995767</v>
       </c>
       <c r="E3">
-        <v>0.0002591182118678647</v>
+        <v>0.0157819662568264</v>
       </c>
       <c r="F3">
-        <v>0.0006102015487668596</v>
+        <v>0.03019583259183797</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1.558188301479732</v>
+      </c>
+      <c r="C4">
+        <v>1.558188301479732</v>
+      </c>
+      <c r="D4">
+        <v>1.517674505981419</v>
+      </c>
+      <c r="E4">
+        <v>1.54136591232398</v>
+      </c>
+      <c r="F4">
+        <v>1.569805758248408</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1.460268361560268</v>
+      </c>
+      <c r="C5">
+        <v>1.460268361560268</v>
+      </c>
+      <c r="D5">
+        <v>1.503544130818581</v>
+      </c>
+      <c r="E5">
+        <v>1.479426698876021</v>
+      </c>
+      <c r="F5">
+        <v>1.451296689751592</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjrti\PycharmProjects\StochasticSimulation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393D64B4-2826-40F1-995F-C3BBAE124009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>monte_carlo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>pure_random</t>
   </si>
@@ -28,7 +31,13 @@
     <t>lhs</t>
   </si>
   <si>
-    <t>imp_monte_carlo</t>
+    <t>imp_pure_random</t>
+  </si>
+  <si>
+    <t>imp_orth_sampling</t>
+  </si>
+  <si>
+    <t>imp_lhs</t>
   </si>
   <si>
     <t>stat_sample_size</t>
@@ -44,13 +53,65 @@
   </si>
   <si>
     <t>ci_down</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>t test for pure_random and orth_sampling is Ttest_indResult(statistic=-0.2328829270396404, pvalue=0.8158761698525189)</t>
+  </si>
+  <si>
+    <t>t test for pure_random and lhs is Ttest_indResult(statistic=-0.370404875307288, pvalue=0.7111201040165693)</t>
+  </si>
+  <si>
+    <t>t test for pure_random and imp_pure_random is Ttest_indResult(statistic=-37.86733190743946, pvalue=5.397422378782857e-237)</t>
+  </si>
+  <si>
+    <t>t test for pure_random and imp_orth_sampling is Ttest_indResult(statistic=-0.5171858572316421, pvalue=0.6050836710952715)</t>
+  </si>
+  <si>
+    <t>t test for pure_random and imp_lhs is Ttest_indResult(statistic=-0.48378779419882223, pvalue=0.6285894954326848)</t>
+  </si>
+  <si>
+    <t>t test for orth_sampling and lhs is Ttest_indResult(statistic=-0.315097611013702, pvalue=0.752720446543784)</t>
+  </si>
+  <si>
+    <t>t test for orth_sampling and imp_pure_random is Ttest_indResult(statistic=-41.5079306023902, pvalue=4.316182374468302e-272)</t>
+  </si>
+  <si>
+    <t>t test for orth_sampling and imp_orth_sampling is Ttest_indResult(statistic=-1.3794496026676044, pvalue=0.16791054384416793)</t>
+  </si>
+  <si>
+    <t>t test for orth_sampling and imp_lhs is Ttest_indResult(statistic=-0.5338708651747444, pvalue=0.5934902693596373)</t>
+  </si>
+  <si>
+    <t>t test for lhs and imp_pure_random is Ttest_indResult(statistic=-39.91192718087573, pvalue=1.167123648090475e-256)</t>
+  </si>
+  <si>
+    <t>t test for lhs and imp_orth_sampling is Ttest_indResult(statistic=-0.13729424167022497, pvalue=0.8908120551352887)</t>
+  </si>
+  <si>
+    <t>t test for lhs and imp_lhs is Ttest_indResult(statistic=-0.1488171926890166, pvalue=0.881712901975753)</t>
+  </si>
+  <si>
+    <t>t test for imp_pure_random and imp_orth_sampling is Ttest_indResult(statistic=41.369657906887014, pvalue=9.422111655305952e-271)</t>
+  </si>
+  <si>
+    <t>t test for imp_pure_random and imp_lhs is Ttest_indResult(statistic=39.95704868690678, pvalue=4.282039049847998e-257)</t>
+  </si>
+  <si>
+    <t>t test for imp_orth_sampling and imp_lhs is Ttest_indResult(statistic=-0.06592016720617223, pvalue=0.9474479794004187)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +127,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -102,10 +175,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -113,6 +203,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +289,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +341,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,14 +534,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="A11:G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,100 +572,497 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1.50922833152</v>
-      </c>
-      <c r="C2">
-        <v>1.50922833152</v>
-      </c>
-      <c r="D2">
-        <v>1.5106093184</v>
-      </c>
-      <c r="E2">
-        <v>1.5103963056</v>
-      </c>
-      <c r="F2">
-        <v>1.510551224</v>
-      </c>
-      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1.5099874316799999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.5101766534400001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.5103376579200001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.5826159440000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.5104079244799999</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.5104405679999999</v>
+      </c>
+      <c r="H2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.0249497709391782</v>
-      </c>
-      <c r="C3">
-        <v>0.0249497709391782</v>
-      </c>
-      <c r="D3">
-        <v>0.003600386436995767</v>
-      </c>
-      <c r="E3">
-        <v>0.0157819662568264</v>
-      </c>
-      <c r="F3">
-        <v>0.03019583259183797</v>
-      </c>
-      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2.5414756837919581E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.690091243678641E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.572289449065881E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5.5036634596418117E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.8030482294436332E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.5182636061299401E-2</v>
+      </c>
+      <c r="H3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1.558188301479732</v>
-      </c>
-      <c r="C4">
-        <v>1.558188301479732</v>
-      </c>
-      <c r="D4">
-        <v>1.517674505981419</v>
-      </c>
-      <c r="E4">
-        <v>1.54136591232398</v>
-      </c>
-      <c r="F4">
-        <v>1.569805758248408</v>
-      </c>
-      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1.5598598627476741</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.517417872482836</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.5411913456680471</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.6906166139498029</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.5178708036993269</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.5402340842323881</v>
+      </c>
+      <c r="H4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>1.460268361560268</v>
-      </c>
-      <c r="C5">
-        <v>1.460268361560268</v>
-      </c>
-      <c r="D5">
-        <v>1.503544130818581</v>
-      </c>
-      <c r="E5">
-        <v>1.479426698876021</v>
-      </c>
-      <c r="F5">
-        <v>1.451296689751592</v>
-      </c>
-      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.460115000612326</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.5029354343971639</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.479483970171954</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.474615274050197</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.502945045260673</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.480647051767612</v>
+      </c>
+      <c r="H5">
         <v>1000</v>
       </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.753</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.753</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.629</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>